--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_4_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_4_sine_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.88000000000045</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007916167801984453</v>
+        <v>0.0774111501817405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007916167801984453</v>
+        <v>0.0774111501817405</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>42.70419898948846</v>
+        <v>26.18657039494436</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[10.377615925274142, 75.03078205370278]</t>
+          <t>[-1.5028629946701457, 53.87600378455886]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01076985865274294</v>
+        <v>0.06321126537859478</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01076985865274294</v>
+        <v>0.06321126537859478</v>
       </c>
       <c r="P2" t="n">
-        <v>1.352237078121733</v>
+        <v>1.641552918091965</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.2956053147521924, 2.408868841491273]</t>
+          <t>[0.19497371824080822, 3.088132117943122]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.01329642050133195</v>
+        <v>0.02704218021045057</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01329642050133195</v>
+        <v>0.02704218021045057</v>
       </c>
       <c r="T2" t="n">
-        <v>61.72110042404502</v>
+        <v>58.5368055023941</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.97065734459481, 80.47154350349523]</t>
+          <t>[42.24209214617926, 74.83151885860894]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.613632615362405e-08</v>
+        <v>4.566565348085305e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>3.613632615362405e-08</v>
+        <v>4.566565348085305e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5254454454458</v>
+        <v>18.32810810810843</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.3414214214217</v>
+        <v>12.61609609609631</v>
       </c>
       <c r="Z2" t="n">
-        <v>23.7094694694699</v>
+        <v>24.04012012012054</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.88000000000045</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001487479304936201</v>
+        <v>7.496604663759232e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001487479304936201</v>
+        <v>7.496604663759232e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>34.52629383244127</v>
+        <v>50.33688176759924</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[11.017118094338514, 58.035469570544024]</t>
+          <t>[26.50207396996946, 74.17168956522902]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.004920843989990153</v>
+        <v>0.0001050101078436949</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004920843989990153</v>
+        <v>0.0001050101078436949</v>
       </c>
       <c r="P3" t="n">
-        <v>1.062921238151501</v>
+        <v>1.515763422452734</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.3836579616996545, 1.7421845146033483]</t>
+          <t>[0.9119738433844269, 2.119553001521041]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.002886296800050703</v>
+        <v>7.626395422066778e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002886296800050703</v>
+        <v>7.626395422066778e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>49.8345528465393</v>
+        <v>69.12284166615062</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[37.124449301140025, 62.54465639193857]</t>
+          <t>[54.14243140957558, 84.10325192272566]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.869726843992339e-10</v>
+        <v>4.902966921349616e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>4.869726843992339e-10</v>
+        <v>4.902966921349616e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>20.67107107107145</v>
+        <v>18.82480480480513</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.98134134134167</v>
+        <v>16.44066066066095</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.36080080080122</v>
+        <v>21.20894894894931</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.88000000000045</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02768167033927926</v>
+        <v>1.728867370376364e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02768167033927926</v>
+        <v>1.728867370376364e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>28.50733640814923</v>
+        <v>58.07023966377325</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[3.5593998312655444, 53.45527298503292]</t>
+          <t>[35.07268138619692, 81.06779794134958]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02605030019974208</v>
+        <v>6.910934175152761e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02605030019974208</v>
+        <v>6.910934175152761e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.566079220708426</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.3962369112635784, 2.7359215301532736]</t>
+          <t>[0.7484474990534249, 1.553500271144502]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.009828569176704605</v>
+        <v>7.105039623311882e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009828569176704605</v>
+        <v>7.105039623311882e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>66.97659321211354</v>
+        <v>67.20653035517748</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[52.16799110761144, 81.78519531661564]</t>
+          <t>[54.79521770365361, 79.61784300670135]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.883560553840653e-12</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>8.883560553840653e-12</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>18.67867867867901</v>
+        <v>20.26522522522558</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.04636636636662</v>
+        <v>18.67579579579613</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.31099099099141</v>
+        <v>21.85465465465504</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.88000000000045</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0003313647380730478</v>
+        <v>0.07373815744808077</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003313647380730478</v>
+        <v>0.07373815744808077</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>36.47695789674447</v>
+        <v>28.58766830932422</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[13.565878160389978, 59.38803763309897]</t>
+          <t>[-1.9494910441424835, 59.12482766279092]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002473114497992812</v>
+        <v>0.0658249627021581</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002473114497992812</v>
+        <v>0.0658249627021581</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7610264486173479</v>
+        <v>1.779921363295118</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.19497371824080822, 1.3270791789938876]</t>
+          <t>[0.22013161736865516, 3.3397111092215814]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.009539996458655775</v>
+        <v>0.02624180334097548</v>
       </c>
       <c r="S5" t="n">
-        <v>0.009539996458655775</v>
+        <v>0.02624180334097548</v>
       </c>
       <c r="T5" t="n">
-        <v>50.92365108943486</v>
+        <v>70.97488018016639</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[39.1644355088377, 62.68286667003203]</t>
+          <t>[53.35458056907128, 88.5951797912615]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.140621096520135e-11</v>
+        <v>2.363034212748971e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>3.140621096520135e-11</v>
+        <v>2.363034212748971e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>21.8665065065069</v>
+        <v>17.78174174174206</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.62506506506542</v>
+        <v>11.62270270270291</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.10794794794839</v>
+        <v>23.9407807807812</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.88000000000045</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003628949384936297</v>
+        <v>6.93062969473468e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003628949384936297</v>
+        <v>6.93062969473468e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>32.01220225401235</v>
+        <v>39.59059971082596</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[9.727031818044637, 54.297372689980065]</t>
+          <t>[17.271334925481145, 61.90986449617078]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.005858301803790322</v>
+        <v>0.00085626945144468</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005858301803790322</v>
+        <v>0.00085626945144468</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2704474156243464</v>
+        <v>0.823921196436963</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5597632555945786, 1.1006580868432714]</t>
+          <t>[0.2956053147521933, 1.3522370781217328]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.5150947123936831</v>
+        <v>0.002973583628305798</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5150947123936831</v>
+        <v>0.002973583628305798</v>
       </c>
       <c r="T6" t="n">
-        <v>56.8744856338285</v>
+        <v>58.76931884316395</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.34665132843173, 69.40231993922526]</t>
+          <t>[47.27989393012521, 70.25874375620269]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.949862990130896e-12</v>
+        <v>2.029487689014786e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>7.949862990130896e-12</v>
+        <v>2.029487689014786e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>23.80908908908952</v>
+        <v>21.55663663663702</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.52164164164201</v>
+        <v>19.47051051051086</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.09653653653703</v>
+        <v>23.64276276276318</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.88000000000045</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.049681059659611</v>
+        <v>6.836269303500675e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.049681059659611</v>
+        <v>6.836269303500675e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>25.78368913001745</v>
+        <v>42.49611108491517</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.2515584789562624, 52.81893673899116]</t>
+          <t>[18.43325865230166, 66.55896351752868]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.06109829445877235</v>
+        <v>0.0008970376546739711</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06109829445877235</v>
+        <v>0.0008970376546739711</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4842895582110396</v>
+        <v>0.5849211547224238</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.2578949563923096, 2.226474072814389]</t>
+          <t>[0.03144737390980712, 1.1383949355350405]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5783397843481084</v>
+        <v>0.03880155801719476</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5783397843481084</v>
+        <v>0.03880155801719476</v>
       </c>
       <c r="T7" t="n">
-        <v>57.16959238736972</v>
+        <v>61.68249535927101</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.920216475881546, 71.41896829885789]</t>
+          <t>[49.44966659525615, 73.91532412328587]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.630731188446589e-10</v>
+        <v>3.197442310920451e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.630731188446589e-10</v>
+        <v>3.197442310920451e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>22.96232232232274</v>
+        <v>22.50036036036076</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.06366366366395</v>
+        <v>20.31489489489525</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.86098098098152</v>
+        <v>24.68582582582626</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.81000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002268170053230101</v>
+        <v>0.001904207304858963</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002268170053230101</v>
+        <v>0.001904207304858963</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>47.52944431471175</v>
+        <v>33.1790150422916</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[22.769310765618357, 72.28957786380515]</t>
+          <t>[11.347063501067204, 55.01096658351599]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0003526946701348788</v>
+        <v>0.003714030427353965</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0003526946701348788</v>
+        <v>0.003714030427353965</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04402632347373103</v>
+        <v>-0.2390000417145384</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.610079053850269, 0.698131700797731]</t>
+          <t>[-1.0629212381515005, 0.5849211547224238]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8927700625792134</v>
+        <v>0.5619739861429405</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8927700625792134</v>
+        <v>0.5619739861429405</v>
       </c>
       <c r="T8" t="n">
-        <v>58.00628286223449</v>
+        <v>42.69011269362457</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.66189362273782, 73.35067210173115]</t>
+          <t>[30.005543576949904, 55.374681810299236]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.264481852558674e-09</v>
+        <v>2.172604474104389e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.264481852558674e-09</v>
+        <v>2.172604474104389e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>22.65017017017029</v>
+        <v>0.8710710710710714</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.27555555555567</v>
+        <v>-2.131831831831848</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.02478478478492</v>
+        <v>3.873973973973991</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.81000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01238221217969582</v>
+        <v>0.003161210226797384</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01238221217969582</v>
+        <v>0.003161210226797384</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>30.43249268341938</v>
+        <v>37.8704125746484</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[4.486707219450956, 56.3782781473878]</t>
+          <t>[10.09872723224747, 65.64209791704933]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.02254185805794617</v>
+        <v>0.008630217293346787</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02254185805794617</v>
+        <v>0.008630217293346787</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5094474573388856</v>
+        <v>0.9748685912040402</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.5283158816847697, 1.547210796362541]</t>
+          <t>[0.24528951649650121, 1.7044476659115793]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.32807638465793</v>
+        <v>0.009957010587807069</v>
       </c>
       <c r="S9" t="n">
-        <v>0.32807638465793</v>
+        <v>0.009957010587807069</v>
       </c>
       <c r="T9" t="n">
-        <v>59.26072752654268</v>
+        <v>55.04351983866211</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.22079777841758, 73.30065727466778]</t>
+          <t>[40.32046773568669, 69.76657194163752]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.499711879826009e-11</v>
+        <v>1.68006897283135e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>6.499711879826009e-11</v>
+        <v>1.68006897283135e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>20.96054054054066</v>
+        <v>19.34694694694706</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19312312312322</v>
+        <v>16.68788788788799</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.72795795795809</v>
+        <v>22.00600600600614</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.81000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>6.86199770133511e-05</v>
+        <v>0.0007101407974131613</v>
       </c>
       <c r="I10" t="n">
-        <v>6.86199770133511e-05</v>
+        <v>0.0007101407974131613</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>56.2586108540461</v>
+        <v>50.31054654170806</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[25.279892492651385, 87.23732921544081]</t>
+          <t>[16.239458173173418, 84.38163491024271]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0006643551965272998</v>
+        <v>0.004710306284302135</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0006643551965272998</v>
+        <v>0.004710306284302135</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6478159025420398</v>
+        <v>0.7736053981812709</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.09434212172942402, 1.2012896833546556]</t>
+          <t>[0.1823947686768852, 1.3648160276856567]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.02281170865148252</v>
+        <v>0.01148516485107143</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02281170865148252</v>
+        <v>0.01148516485107143</v>
       </c>
       <c r="T10" t="n">
-        <v>60.83980863003786</v>
+        <v>68.9706482839203</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.418036276120944, 77.26158098395477]</t>
+          <t>[51.697482558429215, 86.24381400941138]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.11553241591389e-09</v>
+        <v>2.992888159525364e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>2.11553241591389e-09</v>
+        <v>2.992888159525364e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>20.45821821821833</v>
+        <v>20.0804804804806</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.44892892892903</v>
+        <v>17.92572572572583</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.46750750750763</v>
+        <v>22.23523523523537</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_4_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_4_sine_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.81000000000044</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0774111501817405</v>
+        <v>0.0001527422969034298</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0774111501817405</v>
+        <v>0.0001527422969034298</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>26.18657039494436</v>
+        <v>41.90937269548831</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.5028629946701457, 53.87600378455886]</t>
+          <t>[21.24592156210283, 62.57282382887379]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.06321126537859478</v>
+        <v>0.0001788817355716787</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06321126537859478</v>
+        <v>0.0001788817355716787</v>
       </c>
       <c r="P2" t="n">
-        <v>1.641552918091965</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.19497371824080822, 3.088132117943122]</t>
+          <t>[0.9245527929483472, 2.232763547596349]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.02704218021045057</v>
+        <v>1.459380664714516e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02704218021045057</v>
+        <v>1.459380664714516e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>58.5368055023941</v>
+        <v>58.12134792276609</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.24209214617926, 74.83151885860894]</t>
+          <t>[45.07428334319859, 71.1684125023336]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.566565348085305e-09</v>
+        <v>1.38649092207288e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>4.566565348085305e-09</v>
+        <v>1.38649092207288e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>18.32810810810843</v>
+        <v>18.51655655655688</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.61609609609631</v>
+        <v>15.94206206206234</v>
       </c>
       <c r="Z2" t="n">
-        <v>24.04012012012054</v>
+        <v>21.09105105105142</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.81000000000044</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>7.496604663759232e-05</v>
+        <v>6.571120066922731e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>7.496604663759232e-05</v>
+        <v>6.571120066922731e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>50.33688176759924</v>
+        <v>52.38605558064346</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[26.50207396996946, 74.17168956522902]</t>
+          <t>[23.139145498549805, 81.63296566273712]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0001050101078436949</v>
+        <v>0.0007717687373174353</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001050101078436949</v>
+        <v>0.0007717687373174353</v>
       </c>
       <c r="P3" t="n">
-        <v>1.515763422452734</v>
+        <v>0.9245527929483472</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9119738433844269, 2.119553001521041]</t>
+          <t>[0.3836579616996545, 1.46544762419704]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.626395422066778e-06</v>
+        <v>0.001255559104897275</v>
       </c>
       <c r="S3" t="n">
-        <v>7.626395422066778e-06</v>
+        <v>0.001255559104897275</v>
       </c>
       <c r="T3" t="n">
-        <v>69.12284166615062</v>
+        <v>58.92010046325546</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[54.14243140957558, 84.10325192272566]</t>
+          <t>[43.7273991889065, 74.11280173760441]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.902966921349616e-12</v>
+        <v>6.501874594277979e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>4.902966921349616e-12</v>
+        <v>6.501874594277979e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>18.82480480480513</v>
+        <v>21.09105105105142</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44066066066095</v>
+        <v>18.96214214214247</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.20894894894931</v>
+        <v>23.21995995996036</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.81000000000044</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.728867370376364e-07</v>
+        <v>0.004754148821081938</v>
       </c>
       <c r="I4" t="n">
-        <v>1.728867370376364e-07</v>
+        <v>0.004754148821081938</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>58.07023966377325</v>
+        <v>28.55391891553612</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[35.07268138619692, 81.06779794134958]</t>
+          <t>[6.2975349733482275, 50.81030285772402]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.910934175152761e-06</v>
+        <v>0.01308314138886058</v>
       </c>
       <c r="O4" t="n">
-        <v>6.910934175152761e-06</v>
+        <v>0.01308314138886058</v>
       </c>
       <c r="P4" t="n">
-        <v>1.150973885098963</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.7484474990534249, 1.553500271144502]</t>
+          <t>[0.2327105669325773, 1.6918687163476553]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.105039623311882e-07</v>
+        <v>0.01088465408978401</v>
       </c>
       <c r="S4" t="n">
-        <v>7.105039623311882e-07</v>
+        <v>0.01088465408978401</v>
       </c>
       <c r="T4" t="n">
-        <v>67.20653035517748</v>
+        <v>55.81062412846283</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[54.79521770365361, 79.61784300670135]</t>
+          <t>[44.09898366025787, 67.52226459666778]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>1.850519737445211e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>1.850519737445211e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>20.26522522522558</v>
+        <v>20.94252252252289</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.67579579579613</v>
+        <v>18.07097097097129</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.85465465465504</v>
+        <v>23.81407407407448</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.81000000000044</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07373815744808077</v>
+        <v>5.896709379094034e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07373815744808077</v>
+        <v>5.896709379094034e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>28.58766830932422</v>
+        <v>43.38853422526952</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.9494910441424835, 59.12482766279092]</t>
+          <t>[19.513172522156623, 67.26389592838242]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0658249627021581</v>
+        <v>0.000659344537088824</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0658249627021581</v>
+        <v>0.000659344537088824</v>
       </c>
       <c r="P5" t="n">
-        <v>1.779921363295118</v>
+        <v>1.088079137279347</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.22013161736865516, 3.3397111092215814]</t>
+          <t>[0.4968685077749617, 1.6792897667837332]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.02624180334097548</v>
+        <v>0.0005730876326632828</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02624180334097548</v>
+        <v>0.0005730876326632828</v>
       </c>
       <c r="T5" t="n">
-        <v>70.97488018016639</v>
+        <v>56.10172574765436</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[53.35458056907128, 88.5951797912615]</t>
+          <t>[43.52632466698253, 68.6771268283262]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.363034212748971e-10</v>
+        <v>1.328848142634342e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.363034212748971e-10</v>
+        <v>1.328848142634342e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>17.78174174174206</v>
+        <v>20.44742742742778</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.62270270270291</v>
+        <v>18.12048048048079</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.9407807807812</v>
+        <v>22.77437437437477</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.81000000000044</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>6.93062969473468e-05</v>
+        <v>9.475742531295239e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>6.93062969473468e-05</v>
+        <v>9.475742531295239e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>39.59059971082596</v>
+        <v>49.23068306670012</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[17.271334925481145, 61.90986449617078]</t>
+          <t>[24.548880784944213, 73.91248534845602]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.00085626945144468</v>
+        <v>0.0002209940467436944</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00085626945144468</v>
+        <v>0.0002209940467436944</v>
       </c>
       <c r="P6" t="n">
-        <v>0.823921196436963</v>
+        <v>0.8113422468730391</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.2956053147521933, 1.3522370781217328]</t>
+          <t>[0.3459211130078854, 1.2767633807381928]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.002973583628305798</v>
+        <v>0.001027431502184539</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002973583628305798</v>
+        <v>0.001027431502184539</v>
       </c>
       <c r="T6" t="n">
-        <v>58.76931884316395</v>
+        <v>48.50105981074371</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.27989393012521, 70.25874375620269]</t>
+          <t>[35.80003222351784, 61.202087397969585]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.029487689014786e-13</v>
+        <v>9.73888525379607e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>2.029487689014786e-13</v>
+        <v>9.73888525379607e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>21.55663663663702</v>
+        <v>21.53663663663701</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.47051051051086</v>
+        <v>19.70478478478513</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.64276276276318</v>
+        <v>23.36848848848889</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.81000000000044</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>6.836269303500675e-05</v>
+        <v>0.005536391840511801</v>
       </c>
       <c r="I7" t="n">
-        <v>6.836269303500675e-05</v>
+        <v>0.005536391840511801</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>42.49611108491517</v>
+        <v>42.68210990341028</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[18.43325865230166, 66.55896351752868]</t>
+          <t>[10.276254223564479, 75.08796558325608]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0008970376546739711</v>
+        <v>0.01098902362876886</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0008970376546739711</v>
+        <v>0.01098902362876886</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5849211547224238</v>
+        <v>0.4213948103914236</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.03144737390980712, 1.1383949355350405]</t>
+          <t>[-0.4025263860455386, 1.2453160068283857]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.03880155801719476</v>
+        <v>0.3084615913248736</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03880155801719476</v>
+        <v>0.3084615913248736</v>
       </c>
       <c r="T7" t="n">
-        <v>61.68249535927101</v>
+        <v>65.45860255073025</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.44966659525615, 73.91532412328587]</t>
+          <t>[47.91367718615598, 83.00352791530452]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.197442310920451e-13</v>
+        <v>1.770442903392677e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.197442310920451e-13</v>
+        <v>1.770442903392677e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>22.50036036036076</v>
+        <v>23.07143143143183</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.31489489489525</v>
+        <v>19.8285585585589</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.68582582582626</v>
+        <v>26.31430430430476</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,73 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.90000000000014</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001904207304858963</v>
+        <v>0.0008699453435652149</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001904207304858963</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>0.0008699453435652149</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8974505637150393</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8974505637150393</v>
+      </c>
       <c r="L8" t="n">
-        <v>33.1790150422916</v>
+        <v>42.16930842815133</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[11.347063501067204, 55.01096658351599]</t>
+          <t>[12.503773066269801, 71.83484379003285]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.003714030427353965</v>
+        <v>0.006349994072601728</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003714030427353965</v>
+        <v>0.006349994072601728</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2390000417145384</v>
+        <v>-0.5408948312486928</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.0629212381515005, 0.5849211547224238]</t>
+          <t>[-1.2201581077005406, 0.13836844520315505]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5619739861429405</v>
+        <v>0.1157496547925563</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5619739861429405</v>
+        <v>0.1157496547925563</v>
       </c>
       <c r="T8" t="n">
-        <v>42.69011269362457</v>
+        <v>70.6998192097351</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[30.005543576949904, 55.374681810299236]</t>
+          <t>[55.484819599783535, 85.91481881968666]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.172604474104389e-08</v>
+        <v>3.972600026713735e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.172604474104389e-08</v>
+        <v>3.972600026713735e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8710710710710714</v>
+        <v>1.893893893893893</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.131831831831848</v>
+        <v>-0.4844844844844882</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.873973973973991</v>
+        <v>4.272272272272273</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1187,73 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.90000000000014</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003161210226797384</v>
+        <v>0.03912461968204872</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003161210226797384</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>0.03912461968204872</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2742145653297614</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2742145653297614</v>
+      </c>
       <c r="L9" t="n">
-        <v>37.8704125746484</v>
+        <v>26.70649407504762</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[10.09872723224747, 65.64209791704933]</t>
+          <t>[1.9468247557170528, 51.46616339437818]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.008630217293346787</v>
+        <v>0.0351267687050385</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008630217293346787</v>
+        <v>0.0351267687050385</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9748685912040402</v>
+        <v>-0.1006315965113851</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.24528951649650121, 1.7044476659115793]</t>
+          <t>[-1.3648160276856558, 1.1635528346628856]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.009957010587807069</v>
+        <v>0.8733413247440425</v>
       </c>
       <c r="S9" t="n">
-        <v>0.009957010587807069</v>
+        <v>0.8733413247440425</v>
       </c>
       <c r="T9" t="n">
-        <v>55.04351983866211</v>
+        <v>56.00296863290983</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[40.32046773568669, 69.76657194163752]</t>
+          <t>[41.06239088419926, 70.9435463816204]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.68006897283135e-09</v>
+        <v>1.571610619421904e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>1.68006897283135e-09</v>
+        <v>1.571610619421904e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>19.34694694694706</v>
+        <v>0.3523523523523551</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.68788788788799</v>
+        <v>-4.07407407407407</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.00600600600614</v>
+        <v>4.77877877877878</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1277,73 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.90000000000014</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007101407974131613</v>
+        <v>0.004805104369735025</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0007101407974131613</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>0.004805104369735025</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2308695206109794</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2308695206109794</v>
+      </c>
       <c r="L10" t="n">
-        <v>50.31054654170806</v>
+        <v>36.86152720571</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[16.239458173173418, 84.38163491024271]</t>
+          <t>[8.2546402684446, 65.46841414297539]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.004710306284302135</v>
+        <v>0.01271651577012678</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004710306284302135</v>
+        <v>0.01271651577012678</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7736053981812709</v>
+        <v>0.8868159442565782</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.1823947686768852, 1.3648160276856567]</t>
+          <t>[0.16981581911296217, 1.6038160694001942]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.01148516485107143</v>
+        <v>0.01648907221781082</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01148516485107143</v>
+        <v>0.01648907221781082</v>
       </c>
       <c r="T10" t="n">
-        <v>68.9706482839203</v>
+        <v>62.69065390660015</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[51.697482558429215, 86.24381400941138]</t>
+          <t>[47.876058401269866, 77.50524941193044]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.992888159525364e-10</v>
+        <v>6.048628264920808e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>2.992888159525364e-10</v>
+        <v>6.048628264920808e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>20.0804804804806</v>
+        <v>18.8948948948949</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.92572572572583</v>
+        <v>16.38438438438439</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.23523523523537</v>
+        <v>21.40540540540541</v>
       </c>
     </row>
   </sheetData>
